--- a/BalanceSheet/HON_bal.xlsx
+++ b/BalanceSheet/HON_bal.xlsx
@@ -4864,7 +4864,7 @@
         <v>8065000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>6291000000.0</v>
+        <v>2070000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2825000000.0</v>
@@ -4991,7 +4991,7 @@
         <v>16856000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>16707000000.0</v>
+        <v>12486000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>15189000000.0</v>
